--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\bit-academy\Stage\Kwallificerende stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E60446-FF89-4EFA-83F9-C93CF6AA711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA9CC09-7242-4AC8-9986-F559A59688FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -96,9 +96,6 @@
     <t>Inserting test data and be able to retrieving it from the database.</t>
   </si>
   <si>
-    <t>With the help from another student, i was able to create a repository to write a sql query in order to store and retrieve the data</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -106,6 +103,21 @@
   </si>
   <si>
     <t>I created an object relational mapper to be able to more convienently retrieve and format the data on the client side</t>
+  </si>
+  <si>
+    <t>Creating factories for inserting faker data</t>
+  </si>
+  <si>
+    <t>Creating a CRUD model in the facilityController</t>
+  </si>
+  <si>
+    <t>With the usage of the model system, it wasn't quiet as difficult to add the index, show and create methods. The most difficult part was to both update the tags along with the facility.</t>
+  </si>
+  <si>
+    <t>I was able to create a repository to write a sql query in order to store and retrieve the data</t>
+  </si>
+  <si>
+    <t>When creating the factories, it took a long bit before i could seed the data properly inside of the database. I resolved the issue by adjusting my initial sql database setup</t>
   </si>
 </sst>
 </file>
@@ -829,7 +841,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -901,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>45314</v>
+        <v>45558</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
@@ -917,48 +929,68 @@
         <v>2</v>
       </c>
       <c r="C6" s="7">
-        <v>45314</v>
+        <v>45558</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>45314</v>
+        <v>45559</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45560</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45561</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1127,7 +1159,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>

--- a/DTT-Assessment-Hour-Log_2023.xlsx
+++ b/DTT-Assessment-Hour-Log_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\bit-academy\Stage\Kwallificerende stage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\bit-academy\Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FA9CC09-7242-4AC8-9986-F559A59688FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA6FA65-85CC-436D-8F4A-8696AFBFDFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="12336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>When creating the factories, it took a long bit before i could seed the data properly inside of the database. I resolved the issue by adjusting my initial sql database setup</t>
+  </si>
+  <si>
+    <t>Createing Search function</t>
+  </si>
+  <si>
+    <t>Added Pagination</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>I used the where clause methods to retrieve the facility information with multiple search queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> created a pagination method to be used for api request</t>
   </si>
 </sst>
 </file>
@@ -841,7 +856,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.53515625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -994,19 +1009,39 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45561</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45561</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1159,7 +1194,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
